--- a/RUDN/Importance/Varible_f_class_in_Central America.xlsx
+++ b/RUDN/Importance/Varible_f_class_in_Central America.xlsx
@@ -1121,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1118.952762863839</v>
+        <v>1118.952762863845</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>936.668866124339</v>
+        <v>936.6688661243451</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>185.2705662854749</v>
+        <v>185.270566285475</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>185.2504845010057</v>
+        <v>185.2504845010055</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>100.8287851221403</v>
+        <v>100.8287851221406</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>100.7986700163536</v>
+        <v>100.7986700163537</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>88.34260966816608</v>
+        <v>88.3426096681701</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>81.36852494284163</v>
+        <v>81.36852494284352</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>78.00292043299608</v>
+        <v>78.00292043299537</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>73.89227148076394</v>
+        <v>73.89227148076424</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>72.64024383464276</v>
+        <v>72.64024383464226</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>72.45244273329202</v>
+        <v>72.45244273329384</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>71.39515564807742</v>
+        <v>71.395155648076</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>71.39515564807742</v>
+        <v>71.395155648076</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>69.53785566004227</v>
+        <v>69.5378556600419</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>67.41199095720752</v>
+        <v>67.41199095720674</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>66.8193522857122</v>
+        <v>66.81935228571146</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>66.69868200605363</v>
+        <v>66.69868200605571</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>66.17997142054953</v>
+        <v>66.17997142055032</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>65.45896685620669</v>
+        <v>65.45896685620656</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>60.64560354635562</v>
+        <v>60.64560354635623</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>59.57041644528255</v>
+        <v>59.57041644528389</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>58.44821105682693</v>
+        <v>58.4482110568267</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>56.99936413448734</v>
+        <v>56.99936413448177</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>56.98937986909104</v>
+        <v>56.98937986910485</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>55.71081098891915</v>
+        <v>55.71081098892024</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>55.71081098891771</v>
+        <v>55.71081098891797</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>54.89784634581468</v>
+        <v>54.89784634581509</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>54.43176958323694</v>
+        <v>54.43176958323735</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>52.90873310666375</v>
+        <v>52.90873310666699</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>51.92358232262966</v>
+        <v>51.92358232262917</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>50.67470757115629</v>
+        <v>50.67470757115574</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>45.17069849376658</v>
+        <v>45.17069849379584</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>43.53909723513068</v>
+        <v>43.53909723513215</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>41.16830329141514</v>
+        <v>41.16830329141512</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>41.05708130993285</v>
+        <v>41.05708130993723</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>40.62109103648773</v>
+        <v>40.62109103648706</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>38.10226195065325</v>
+        <v>38.10226195065299</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1880,7 +1880,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>37.84834375314504</v>
+        <v>37.84834375314166</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>35.96311181894858</v>
+        <v>35.9631118189486</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>35.70278986901748</v>
+        <v>35.70278986901715</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>35.47989785797748</v>
+        <v>35.47989785797764</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>35.47989785797748</v>
+        <v>35.47989785797764</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>33.47324751365066</v>
+        <v>33.47324751365132</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>33.3370503174305</v>
+        <v>33.33705031742583</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>32.83934442809497</v>
+        <v>32.83934442809504</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>32.29369182029499</v>
+        <v>32.29369182029667</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>30.27225270604642</v>
+        <v>30.27225270604823</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>30.08491957363953</v>
+        <v>30.08491957363941</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>28.30855029566923</v>
+        <v>28.30855029566922</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2232,7 +2232,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>27.72790761153439</v>
+        <v>27.72790761147794</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>22.86573422111048</v>
+        <v>22.86573422110919</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2309,7 +2309,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>22.47748014277667</v>
+        <v>22.47748014277836</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>22.31077505661613</v>
+        <v>22.31077505661606</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2331,7 +2331,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>21.88746238899244</v>
+        <v>21.88746238899247</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>21.76814845738889</v>
+        <v>21.76814845738886</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>21.69730953519894</v>
+        <v>21.69730953519892</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>21.09550530453503</v>
+        <v>21.09550530453256</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>20.91081318112735</v>
+        <v>20.91081318112708</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>20.90948646414283</v>
+        <v>20.90948646414271</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>20.24341643245747</v>
+        <v>20.24341643245745</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>20.24341643245747</v>
+        <v>20.24341643245745</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>18.56499232379559</v>
+        <v>18.56499232379564</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>15.59732973040888</v>
+        <v>15.59732973040765</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>15.06957223894227</v>
+        <v>15.06957223895155</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>14.62342549019035</v>
+        <v>14.62342549019127</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>14.60344023472368</v>
+        <v>14.60344023472336</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>14.51415949954187</v>
+        <v>14.51415949954315</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>14.38021550272036</v>
+        <v>14.38021550272006</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>14.07676137185831</v>
+        <v>14.0767613718583</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2661,7 +2661,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>14.03554518396457</v>
+        <v>14.03554518396458</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2694,7 +2694,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>13.40306436954925</v>
+        <v>13.40306436954904</v>
       </c>
       <c r="C146">
         <v>1e-05</v>
@@ -2738,7 +2738,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>12.27382706168144</v>
+        <v>12.27382706168143</v>
       </c>
       <c r="C150">
         <v>2e-05</v>
@@ -2771,7 +2771,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>11.9545175742691</v>
+        <v>11.95451757426913</v>
       </c>
       <c r="C153">
         <v>2e-05</v>
@@ -2782,7 +2782,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>11.92754783442116</v>
+        <v>11.92754783442117</v>
       </c>
       <c r="C154">
         <v>2e-05</v>
@@ -2793,7 +2793,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>11.73067928406642</v>
+        <v>11.73067928406629</v>
       </c>
       <c r="C155">
         <v>3e-05</v>
@@ -2826,7 +2826,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>11.34733771307005</v>
+        <v>11.34733771307004</v>
       </c>
       <c r="C158">
         <v>4e-05</v>
@@ -2947,7 +2947,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>9.832293379050055</v>
+        <v>9.832293379049981</v>
       </c>
       <c r="C169">
         <v>0.00013</v>
@@ -3035,7 +3035,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>8.85157202207116</v>
+        <v>8.851572022071158</v>
       </c>
       <c r="C177">
         <v>0.00029</v>
@@ -3046,7 +3046,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>8.850594666557472</v>
+        <v>8.850594666557475</v>
       </c>
       <c r="C178">
         <v>0.00029</v>
@@ -3057,7 +3057,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>8.758500312269256</v>
+        <v>8.758500312269229</v>
       </c>
       <c r="C179">
         <v>0.00031</v>
@@ -3068,7 +3068,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>8.758500312269256</v>
+        <v>8.758500312269229</v>
       </c>
       <c r="C180">
         <v>0.00031</v>
@@ -3079,7 +3079,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>8.316805799917482</v>
+        <v>8.316805799917493</v>
       </c>
       <c r="C181">
         <v>0.00045</v>
@@ -3090,7 +3090,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>7.965557111876673</v>
+        <v>7.965557111878457</v>
       </c>
       <c r="C182">
         <v>0.00061</v>
@@ -3112,7 +3112,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>7.914166475613926</v>
+        <v>7.914166475613923</v>
       </c>
       <c r="C184">
         <v>0.0006400000000000001</v>
@@ -3123,7 +3123,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>7.813042061415161</v>
+        <v>7.813042061415166</v>
       </c>
       <c r="C185">
         <v>0.0007</v>
@@ -3145,7 +3145,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>7.787593774717076</v>
+        <v>7.787593774717063</v>
       </c>
       <c r="C187">
         <v>0.00072</v>
@@ -3178,7 +3178,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>7.42164063978572</v>
+        <v>7.421640639785648</v>
       </c>
       <c r="C190">
         <v>0.00098</v>
@@ -3200,7 +3200,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>7.2655540779905</v>
+        <v>7.265554077990496</v>
       </c>
       <c r="C192">
         <v>0.00113</v>
@@ -3211,7 +3211,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>7.259254073656801</v>
+        <v>7.259254073656799</v>
       </c>
       <c r="C193">
         <v>0.00113</v>
@@ -3244,7 +3244,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>6.792203585335682</v>
+        <v>6.792203585335693</v>
       </c>
       <c r="C196">
         <v>0.00171</v>
@@ -3277,7 +3277,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>6.773526958149247</v>
+        <v>6.773526958149239</v>
       </c>
       <c r="C199">
         <v>0.00174</v>
@@ -3310,7 +3310,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>6.763399749313247</v>
+        <v>6.76339974931324</v>
       </c>
       <c r="C202">
         <v>0.00175</v>
@@ -3332,7 +3332,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>6.701122443097269</v>
+        <v>6.701122443097297</v>
       </c>
       <c r="C204">
         <v>0.00185</v>
@@ -3354,7 +3354,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>6.680488930149132</v>
+        <v>6.680488930149255</v>
       </c>
       <c r="C206">
         <v>0.00188</v>
@@ -3387,7 +3387,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>6.579763308357833</v>
+        <v>6.579763308357714</v>
       </c>
       <c r="C209">
         <v>0.00206</v>
@@ -3453,7 +3453,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>6.391883083113143</v>
+        <v>6.391883083113146</v>
       </c>
       <c r="C215">
         <v>0.00243</v>
@@ -3497,7 +3497,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>6.315646726041201</v>
+        <v>6.315646726042515</v>
       </c>
       <c r="C219">
         <v>0.0026</v>
@@ -3508,7 +3508,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>6.210798047174534</v>
+        <v>6.210798047174495</v>
       </c>
       <c r="C220">
         <v>0.00286</v>
@@ -3519,7 +3519,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>6.13272579017181</v>
+        <v>6.132725790171807</v>
       </c>
       <c r="C221">
         <v>0.00306</v>
@@ -3530,7 +3530,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>5.986677797172734</v>
+        <v>5.986677797172698</v>
       </c>
       <c r="C222">
         <v>0.00349</v>
@@ -3541,7 +3541,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>5.940679061334222</v>
+        <v>5.940679061334234</v>
       </c>
       <c r="C223">
         <v>0.00364</v>
@@ -3552,7 +3552,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>5.775878219684263</v>
+        <v>5.775878219681998</v>
       </c>
       <c r="C224">
         <v>0.00422</v>
@@ -3563,7 +3563,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>5.714886239625624</v>
+        <v>5.714886239625642</v>
       </c>
       <c r="C225">
         <v>0.00445</v>
@@ -3640,7 +3640,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>5.167451545440048</v>
+        <v>5.167451545440045</v>
       </c>
       <c r="C232">
         <v>0.0073</v>
@@ -3651,7 +3651,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>5.161441892023235</v>
+        <v>5.161441892023239</v>
       </c>
       <c r="C233">
         <v>0.00734</v>
@@ -3662,7 +3662,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>5.12446242168761</v>
+        <v>5.124462421687614</v>
       </c>
       <c r="C234">
         <v>0.00759</v>
@@ -3673,7 +3673,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>5.087802693770354</v>
+        <v>5.087802693766135</v>
       </c>
       <c r="C235">
         <v>0.007849999999999999</v>
